--- a/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ip_calibrated.xlsx
+++ b/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ip_calibrated.xlsx
@@ -4248,7 +4248,7 @@
         <v>3.562807435391615E-08</v>
       </c>
       <c r="N27">
-        <v>5.86142995778368E-08</v>
+        <v>5.861429957783679E-08</v>
       </c>
       <c r="O27">
         <v>5.93755514234267E-08</v>
@@ -8060,7 +8060,7 @@
         <v>4.204879179792288E-07</v>
       </c>
       <c r="K58">
-        <v>2.134674952398524E-07</v>
+        <v>2.134674952398523E-07</v>
       </c>
       <c r="L58">
         <v>1.821066535588572E-07</v>
@@ -10646,7 +10646,7 @@
         <v>2.250346884587523E-07</v>
       </c>
       <c r="N79">
-        <v>2.207387440616853E-07</v>
+        <v>2.207387440616852E-07</v>
       </c>
       <c r="O79">
         <v>2.074080106956594E-07</v>
@@ -26880,7 +26880,7 @@
         <v>3.562807435391615E-08</v>
       </c>
       <c r="N24">
-        <v>5.86142995778368E-08</v>
+        <v>5.861429957783679E-08</v>
       </c>
       <c r="O24">
         <v>5.93755514234267E-08</v>
@@ -28356,7 +28356,7 @@
         <v>4.204879179792288E-07</v>
       </c>
       <c r="K36">
-        <v>2.134674952398524E-07</v>
+        <v>2.134674952398523E-07</v>
       </c>
       <c r="L36">
         <v>1.821066535588572E-07</v>
@@ -29356,7 +29356,7 @@
         <v>2.250346884587523E-07</v>
       </c>
       <c r="N44">
-        <v>2.207387440616853E-07</v>
+        <v>2.207387440616852E-07</v>
       </c>
       <c r="O44">
         <v>2.074080106956594E-07</v>

--- a/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ip_calibrated.xlsx
+++ b/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ip_calibrated.xlsx
@@ -2252,67 +2252,67 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>2700000000</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -3909,7 +3909,7 @@
         <v>68</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -4156,7 +4156,7 @@
         <v>70</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -4281,7 +4281,7 @@
         <v>71</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>72</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>74</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>75</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         <v>79</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>80</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -6376,7 +6376,7 @@
         <v>88</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -6989,7 +6989,7 @@
         <v>93</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>98</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7727,7 +7727,7 @@
         <v>99</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -7974,7 +7974,7 @@
         <v>101</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -8099,7 +8099,7 @@
         <v>102</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -8224,7 +8224,7 @@
         <v>103</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>105</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -9816,7 +9816,7 @@
         <v>116</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -9941,7 +9941,7 @@
         <v>117</v>
       </c>
       <c r="C73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -10310,7 +10310,7 @@
         <v>120</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -10435,7 +10435,7 @@
         <v>121</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -10560,7 +10560,7 @@
         <v>122</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -10685,7 +10685,7 @@
         <v>123</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -11786,7 +11786,7 @@
         <v>132</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -11911,7 +11911,7 @@
         <v>133</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -12036,7 +12036,7 @@
         <v>134</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -13527,112 +13527,112 @@
         <v>0.75</v>
       </c>
       <c r="J102">
-        <v>16.96750876496456</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>-49.02989053976565</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>25.62706519833048</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>1.033294615182613</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>20.90728881681153</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>0.6969546743804894</v>
+        <v>0</v>
       </c>
       <c r="P102">
-        <v>0.7070561852344731</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>0.7171576960884568</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>0.7272592069424405</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>0.7373607177964242</v>
+        <v>0</v>
       </c>
       <c r="T102">
-        <v>0.7474622286504078</v>
+        <v>0</v>
       </c>
       <c r="U102">
-        <v>0.7575637395043915</v>
+        <v>0</v>
       </c>
       <c r="V102">
-        <v>0.7676652503583752</v>
+        <v>0</v>
       </c>
       <c r="W102">
-        <v>0.7777667612123589</v>
+        <v>0</v>
       </c>
       <c r="X102">
-        <v>0.7878682720663426</v>
+        <v>0</v>
       </c>
       <c r="Y102">
-        <v>0.7979697829203263</v>
+        <v>0</v>
       </c>
       <c r="Z102">
-        <v>0.80807129377431</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.8181728046282937</v>
+        <v>0</v>
       </c>
       <c r="AB102">
-        <v>0.8282743154822774</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.8383758263362611</v>
+        <v>0</v>
       </c>
       <c r="AD102">
-        <v>0.8484773371902448</v>
+        <v>0</v>
       </c>
       <c r="AE102">
-        <v>0.8585788480442285</v>
+        <v>0</v>
       </c>
       <c r="AF102">
-        <v>0.8686803588982122</v>
+        <v>0</v>
       </c>
       <c r="AG102">
-        <v>0.8787818697521957</v>
+        <v>0</v>
       </c>
       <c r="AH102">
-        <v>0.8888833806061794</v>
+        <v>0</v>
       </c>
       <c r="AI102">
-        <v>0.8989848914601631</v>
+        <v>0</v>
       </c>
       <c r="AJ102">
-        <v>0.9090864023141468</v>
+        <v>0</v>
       </c>
       <c r="AK102">
-        <v>0.9191879131681304</v>
+        <v>0</v>
       </c>
       <c r="AL102">
-        <v>0.9292894240221142</v>
+        <v>0</v>
       </c>
       <c r="AM102">
-        <v>0.939390934876098</v>
+        <v>0</v>
       </c>
       <c r="AN102">
-        <v>0.9494924457300816</v>
+        <v>0</v>
       </c>
       <c r="AO102">
-        <v>0.9595939565840652</v>
+        <v>0</v>
       </c>
       <c r="AP102">
-        <v>0.9696954674380488</v>
+        <v>0</v>
       </c>
       <c r="AQ102">
-        <v>0.9797969782920326</v>
+        <v>0</v>
       </c>
       <c r="AR102">
-        <v>0.9898984891460164</v>
+        <v>0</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -15015,7 +15015,7 @@
         <v>158</v>
       </c>
       <c r="C114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -15140,7 +15140,7 @@
         <v>159</v>
       </c>
       <c r="C115">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>160</v>
       </c>
       <c r="C116">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -15634,7 +15634,7 @@
         <v>163</v>
       </c>
       <c r="C119">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -15759,7 +15759,7 @@
         <v>164</v>
       </c>
       <c r="C120">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -17842,112 +17842,112 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="U137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="V137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AC137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AD137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AE137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AF137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AH137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AI137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AJ137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AK137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AL137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AN137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AO137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AP137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AQ137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AR137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AS137">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -24208,7 +24208,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -24333,7 +24333,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -24458,7 +24458,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -24583,7 +24583,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -24708,7 +24708,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -24833,7 +24833,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -24958,7 +24958,7 @@
         <v>78</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -25083,7 +25083,7 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -25208,7 +25208,7 @@
         <v>80</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -25333,7 +25333,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -25458,7 +25458,7 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -25583,7 +25583,7 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -25708,7 +25708,7 @@
         <v>99</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -25833,7 +25833,7 @@
         <v>101</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -25958,7 +25958,7 @@
         <v>102</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -26083,7 +26083,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -26208,7 +26208,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -26333,7 +26333,7 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -26458,7 +26458,7 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -26583,7 +26583,7 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -26708,7 +26708,7 @@
         <v>121</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -26833,7 +26833,7 @@
         <v>122</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -26958,7 +26958,7 @@
         <v>123</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -27083,7 +27083,7 @@
         <v>132</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -27208,7 +27208,7 @@
         <v>133</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         <v>134</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -27458,7 +27458,7 @@
         <v>158</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -27583,7 +27583,7 @@
         <v>159</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -27708,7 +27708,7 @@
         <v>160</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -27833,7 +27833,7 @@
         <v>163</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -27958,7 +27958,7 @@
         <v>164</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -28965,7 +28965,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -29090,7 +29090,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -29215,7 +29215,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -29340,7 +29340,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -29465,7 +29465,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -29590,7 +29590,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -29715,7 +29715,7 @@
         <v>78</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -29840,7 +29840,7 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -29965,7 +29965,7 @@
         <v>80</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -30090,7 +30090,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -30215,7 +30215,7 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -30340,7 +30340,7 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -30465,7 +30465,7 @@
         <v>99</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -30590,7 +30590,7 @@
         <v>101</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -30715,7 +30715,7 @@
         <v>102</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -30840,7 +30840,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -30965,7 +30965,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -31090,7 +31090,7 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -31215,7 +31215,7 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -31340,7 +31340,7 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -31465,7 +31465,7 @@
         <v>121</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -31590,7 +31590,7 @@
         <v>122</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -31715,7 +31715,7 @@
         <v>123</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -31840,7 +31840,7 @@
         <v>132</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -31965,7 +31965,7 @@
         <v>133</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -32090,7 +32090,7 @@
         <v>134</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>158</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -32340,7 +32340,7 @@
         <v>159</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -32465,7 +32465,7 @@
         <v>160</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -32590,7 +32590,7 @@
         <v>163</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -32715,7 +32715,7 @@
         <v>164</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -33722,7 +33722,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -33847,7 +33847,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -33972,7 +33972,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -34097,7 +34097,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -34222,7 +34222,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -34347,7 +34347,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -34472,7 +34472,7 @@
         <v>78</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -34597,7 +34597,7 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -34722,7 +34722,7 @@
         <v>80</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -34847,7 +34847,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -34972,7 +34972,7 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -35097,7 +35097,7 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -35222,7 +35222,7 @@
         <v>99</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -35347,7 +35347,7 @@
         <v>101</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -35472,7 +35472,7 @@
         <v>102</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -35597,7 +35597,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -35722,7 +35722,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -35847,7 +35847,7 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -35972,7 +35972,7 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -36097,7 +36097,7 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -36222,7 +36222,7 @@
         <v>121</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -36347,7 +36347,7 @@
         <v>122</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -36472,7 +36472,7 @@
         <v>123</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>132</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -36722,7 +36722,7 @@
         <v>133</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -36847,7 +36847,7 @@
         <v>134</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -36972,7 +36972,7 @@
         <v>158</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -37097,7 +37097,7 @@
         <v>159</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -37222,7 +37222,7 @@
         <v>160</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -37347,7 +37347,7 @@
         <v>163</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -37472,7 +37472,7 @@
         <v>164</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -38479,7 +38479,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -38604,7 +38604,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -38729,7 +38729,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -38854,7 +38854,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -38979,7 +38979,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -39104,7 +39104,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -39229,7 +39229,7 @@
         <v>78</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -39354,7 +39354,7 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -39479,7 +39479,7 @@
         <v>80</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -39604,7 +39604,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -39729,7 +39729,7 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -39854,7 +39854,7 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -39979,7 +39979,7 @@
         <v>99</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -40104,7 +40104,7 @@
         <v>101</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -40229,7 +40229,7 @@
         <v>102</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -40354,7 +40354,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -40479,7 +40479,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -40604,7 +40604,7 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -40729,7 +40729,7 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -40854,7 +40854,7 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -40979,7 +40979,7 @@
         <v>121</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -41104,7 +41104,7 @@
         <v>122</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         <v>123</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -41354,7 +41354,7 @@
         <v>132</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -41479,7 +41479,7 @@
         <v>133</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -41604,7 +41604,7 @@
         <v>134</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -41729,7 +41729,7 @@
         <v>158</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -41854,7 +41854,7 @@
         <v>159</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -41979,7 +41979,7 @@
         <v>160</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -42104,7 +42104,7 @@
         <v>163</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -42229,7 +42229,7 @@
         <v>164</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -43236,7 +43236,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -43361,7 +43361,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -43486,7 +43486,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -43611,7 +43611,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -43736,7 +43736,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -43861,7 +43861,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -43986,7 +43986,7 @@
         <v>78</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -44111,7 +44111,7 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -44236,7 +44236,7 @@
         <v>80</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -44361,7 +44361,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -44486,7 +44486,7 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -44611,7 +44611,7 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -44736,7 +44736,7 @@
         <v>99</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -44861,7 +44861,7 @@
         <v>101</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -44986,7 +44986,7 @@
         <v>102</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -45111,7 +45111,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -45236,7 +45236,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -45361,7 +45361,7 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -45486,7 +45486,7 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -45611,7 +45611,7 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -45736,7 +45736,7 @@
         <v>121</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -45861,7 +45861,7 @@
         <v>122</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -45986,7 +45986,7 @@
         <v>123</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -46111,7 +46111,7 @@
         <v>132</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -46236,7 +46236,7 @@
         <v>133</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -46361,7 +46361,7 @@
         <v>134</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -46486,7 +46486,7 @@
         <v>158</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -46611,7 +46611,7 @@
         <v>159</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -46736,7 +46736,7 @@
         <v>160</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -46861,7 +46861,7 @@
         <v>163</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -46986,7 +46986,7 @@
         <v>164</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -47993,7 +47993,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -48118,7 +48118,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -48243,7 +48243,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -48368,7 +48368,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -48493,7 +48493,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -48618,7 +48618,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -48743,7 +48743,7 @@
         <v>78</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -48868,7 +48868,7 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -48993,7 +48993,7 @@
         <v>80</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -49118,7 +49118,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -49243,7 +49243,7 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -49368,7 +49368,7 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -49493,7 +49493,7 @@
         <v>99</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -49618,7 +49618,7 @@
         <v>101</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -49743,7 +49743,7 @@
         <v>102</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -49868,7 +49868,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -49993,7 +49993,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -50118,7 +50118,7 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -50243,7 +50243,7 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -50368,7 +50368,7 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -50493,7 +50493,7 @@
         <v>121</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -50618,7 +50618,7 @@
         <v>122</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -50743,7 +50743,7 @@
         <v>123</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -50868,7 +50868,7 @@
         <v>132</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -50993,7 +50993,7 @@
         <v>133</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -51118,7 +51118,7 @@
         <v>134</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -51243,7 +51243,7 @@
         <v>158</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -51368,7 +51368,7 @@
         <v>159</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -51493,7 +51493,7 @@
         <v>160</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -51618,7 +51618,7 @@
         <v>163</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -51743,7 +51743,7 @@
         <v>164</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -52750,7 +52750,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -52875,7 +52875,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -53000,7 +53000,7 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -53125,7 +53125,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -53250,7 +53250,7 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -53375,7 +53375,7 @@
         <v>75</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -53500,7 +53500,7 @@
         <v>78</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -53625,7 +53625,7 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -53750,7 +53750,7 @@
         <v>80</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -53875,7 +53875,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -54000,7 +54000,7 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -54125,7 +54125,7 @@
         <v>98</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -54250,7 +54250,7 @@
         <v>99</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -54375,7 +54375,7 @@
         <v>101</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -54500,7 +54500,7 @@
         <v>102</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -54625,7 +54625,7 @@
         <v>103</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -54750,7 +54750,7 @@
         <v>105</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -54875,7 +54875,7 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -55000,7 +55000,7 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -55125,7 +55125,7 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -55250,7 +55250,7 @@
         <v>121</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -55375,7 +55375,7 @@
         <v>122</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -55500,7 +55500,7 @@
         <v>123</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -55625,7 +55625,7 @@
         <v>132</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -55750,7 +55750,7 @@
         <v>133</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -55875,7 +55875,7 @@
         <v>134</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -56000,7 +56000,7 @@
         <v>158</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -56125,7 +56125,7 @@
         <v>159</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -56250,7 +56250,7 @@
         <v>160</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -56375,7 +56375,7 @@
         <v>163</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -56500,7 +56500,7 @@
         <v>164</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>1</v>
